--- a/medicine/Psychotrope/Mannochmore/Mannochmore.xlsx
+++ b/medicine/Psychotrope/Mannochmore/Mannochmore.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Mannochmore est une distillerie de whisky fondée en 1971 à Elgin dans le Morayshire en Écosse.
@@ -512,7 +524,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La distillerie est construite en 1971 en pleine période d’essor du whisky écossais. Il s’agissait pour son propriétaire, John Haig &amp; Co, d’augmenter la production de whiskies dans le but de produire plus de blend Haig qui était parmi les blends les plus recherchés par les consommateurs dans les années 1950 et 1960.
 Mannochmore s’est fait connaitre en 1996 en lançant le Loch Dhu, le whisky noir. C’était un whisky très teinté avec du caramel. Ce whisky a connu beaucoup de succès mais uniquement au Danemark. Sa production a très vite été arrêtée. La bouteille est maintenant devenue culte et s’achète aux enchères par les collectionneurs autour de 300 €[réf. nécessaire].
@@ -547,11 +561,50 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Versions officielles
-Mannochmore 12 ans (série Flora &amp; Fauna)
-Mannochmore 22 ans (série Rare Malt)
-Embouteillages indépendants
-Mannochmore 1991 13 ans Signatory Vintage
+          <t>Versions officielles</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Mannochmore 12 ans (série Flora &amp; Fauna)
+Mannochmore 22 ans (série Rare Malt)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Mannochmore</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mannochmore</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Production</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Embouteillages indépendants</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Mannochmore 1991 13 ans Signatory Vintage
 Mannochmore 1994 14 ans Douglas Laing</t>
         </is>
       </c>
